--- a/Luban/Configs/Datas/l10n/texts.xlsx
+++ b/Luban/Configs/Datas/l10n/texts.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23235" windowHeight="7575"/>
+    <workbookView windowWidth="20940" windowHeight="9375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="通用" sheetId="1" r:id="rId1"/>
+    <sheet name="错误码" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -53,6 +54,24 @@
   </si>
   <si>
     <t>TestName</t>
+  </si>
+  <si>
+    <t>/errcode/0</t>
+  </si>
+  <si>
+    <t>成功！</t>
+  </si>
+  <si>
+    <t>Success!</t>
+  </si>
+  <si>
+    <t>/errcode/1</t>
+  </si>
+  <si>
+    <t>失败！</t>
+  </si>
+  <si>
+    <t>Failed!</t>
   </si>
 </sst>
 </file>
@@ -689,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +717,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1050,28 +1072,28 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1119,4 +1141,91 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>